--- a/2026/Cuentas de Cobro/02-26/GCT-FT-18-V5 Informe Mensual de Prestación de Servicio 02.xlsx
+++ b/2026/Cuentas de Cobro/02-26/GCT-FT-18-V5 Informe Mensual de Prestación de Servicio 02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unproteccion-my.sharepoint.com/personal/juan_calixto_unp_gov_co/Documents/Documents/Cuentas de Cobro/2026/01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{40B9E632-FB64-4AE3-8161-E20B5B662C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{869D684C-1C24-46D9-9943-7B44340C4B49}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6A00C7-F2AC-4871-B08A-41DF7087F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -48,12 +51,21 @@
   <commentList>
     <comment ref="A170" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Por favor indicar , por que  lo están relacionado y se realice los ajustes que haya lugar. 
 Respuesta:
     Falta brindar respuesta</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -61,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
   <si>
     <t xml:space="preserve"> INFORME MENSUAL DE PRESTACIÓN DE SERVICIOS </t>
   </si>
@@ -108,9 +120,6 @@
     <t>Apoyo en la creación, diseño, programación y administración de las herramientas y aplicativos, requeridas en la Subdirección de Protección, con la finalidad de integrar y consolidar todas las gestiones adelantadas en los Grupos Misionales en tiempo real, en coordinación con el supervisor del contrato.</t>
   </si>
   <si>
-    <t>Se realizaron un total de 8 enpoints utilizando en Framework Django para el aplicativo asp-sp, en la parte de desplazamientos, para la comunicación apropiada entre el Frontend y el backend, con sus respectivas consideraciones de seguridad, lectura y optimizaciones</t>
-  </si>
-  <si>
     <t>https://github.com/EcosistemaUNP/bk-sp-asp.git</t>
   </si>
   <si>
@@ -126,18 +135,12 @@
     <t>Realizar los requerimientos a los Grupos de la Subdirección de Protección en donde se observen inconsistencias en la información aportada, para la actualización periódica de información.</t>
   </si>
   <si>
-    <t>Se tomaron los requerimientos del Grupo de Control de Dezplazamientos Esquemas protectivos (GCEDP), modificando de forma acorde los archivos de inicialización de las bases de datos del aplicativo en desarrollo sp-asp adicionando funciones en el aplicativo y añadiendo información para la gestión dada las zonas operativas.</t>
-  </si>
-  <si>
     <t>https://github.com/EcosistemaUNP/bk-sp-asp/commits/JCalixto-dev</t>
   </si>
   <si>
     <t>Brindar apoyo en la actualización de las herramientas y aplicativos de la Subdirección de Protección, que sirvan de insumo para atender las solicitudes de información requeridas por el supervisor del contrato.</t>
   </si>
   <si>
-    <t>Se realizaron múltiples tests, actualizaciones (commits), y nuevos desarrollos en el aplicativo en desarrollo asp-sp para complementar las funciones de gestión de desplazamientos.</t>
-  </si>
-  <si>
     <t>Proyectar los insumos y las respuestas a las peticiones que le sean asignadas, que versen sobre trámites misionales de competencia de la Subdirección de Protección, dentro de los plazos estipulados en la ley, en concordancia con los procedimientos internos de la Entidad. Al mismo tiempo, mantener actualizado el Sistema de Gestión Documental, respecto de los radicados</t>
   </si>
   <si>
@@ -147,15 +150,9 @@
     <t>Efectuar la automatización de la información de todos los procedimientos adelantados por la Subdirección de Protección, con las herramientas tecnológicas disponibles, para brindar informes y reportes en tiempo real, solicitados por el supervisor.</t>
   </si>
   <si>
-    <t>Se realizaron desarrollos de lógica y automatización para múltiples validaciones, procesos que actualmente se realizan de forma manual, y procedimientos para el GCEDP utilizando lenguaje de programación python y framework Django creando serializadores, endpoints y modelos.</t>
-  </si>
-  <si>
     <t>Registrar y actualizar de manera oportuna y precisa la información gestionada en los sistemas digitales y/o físicos de la Subdirección de Protección, cumpliendo con las políticas de seguridad de la información de la Entidad.</t>
   </si>
   <si>
-    <t>Se realizó limpieza de la base de datos del aplicativo sp-asp realizando migraciones en el ambiente de desarrollo y actualización de todas las tablas de desplazamientos, y así mismo las tablas relacionadas con consultas, como municipios, departamentos y centros poblados.</t>
-  </si>
-  <si>
     <t>Presentar los informes periódicos respecto del avance y desarrollo de gestiones que le sean encomendadas, en los plazos establecidos, conforme le sea solicitado por el supervisor del contrato.</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
   </si>
   <si>
     <t>Participar en las reuniones y capacitaciones requeridas por el supervisor del contrato.</t>
-  </si>
-  <si>
-    <t>Se participó en reunión y capacitación sobre la nueva organización de la Unidad Nacional de Protección estipulada bajo el decreto 0019 del 2026</t>
   </si>
   <si>
     <t>Link a Microsoft Teams</t>
@@ -490,7 +484,25 @@
     <t>Diligencie la ruta de disposición final (almacenamiento) del documento ya sea físico o Digital cumpliendo los  lineamientos y directrices establecidos por Gestión Documental.</t>
   </si>
   <si>
-    <t>CON CORTE AL 31 DE ENERO DEL 2026</t>
+    <t>Se tomaron los requerimientos del Grupo de Control de Dezplazamientos Esquemas protectivos (GCEDP), modificando el llenado automatico de los formatos de solicitud de desplazamientos y se avanza con creacion de bases para el aplicativo PD-RI para registrar toda la informacion necesaria.</t>
+  </si>
+  <si>
+    <t>Se ajusto la logica de los endpoints creados en el mes de enero, borrando un endpoint el cual se decomisiono, haciendo cambios de logica y optimizacion en el mapeo de PDF y cambios de informacion mostrada para los endpoints de los gestores, a su vez se avanza con la pantalla de registro de incidentes/novedades de medidas de proteccion en el aplicativo DP-RI</t>
+  </si>
+  <si>
+    <t>Se realizaron múltiples tests, actualizaciones (commits), y nuevos desarrollos en el aplicativo en desarrollo asp-sp para complementar las funciones de gestión de desplazamientos y se avanza en el desarrollo de la pantalla para registro de nvoedades en el aplicativo DP-RI</t>
+  </si>
+  <si>
+    <t>https://github.com/EcosistemaUNP/bk-sp-asp/commits/JCalixto-dev, Enlace del arbol de aplicaciones de la Subdirección: https://apps.powerapps.com/play/e/default-58ec5e61-0ed7-4021-a4f8-c2e2b3b9f5ff/a/9f47d67b-a14a-449a-9e20-5fba6e6e51c3?tenantId=58ec5e61-0ed7-4021-a4f8-c2e2b3b9f5ff&amp;sourcetime=1757003904953</t>
+  </si>
+  <si>
+    <t>Se realizaron desarrollos de lógica y automatización para múltiples validaciones, procesos que actualmente se realizan de forma manual, y procedimientos para el GCEDP utilizando lenguaje de programación python y framework Django creando serializadores, endpoints y modelos, tambien se avanza en el desarrollo de nueva pantalla en el aplicativo DP-RI</t>
+  </si>
+  <si>
+    <t>Se realizó limpieza de la base de datos del aplicativo sp-asp realizando migraciones en el ambiente de desarrollo y actualización de todas las tablas de desplazamientos, y se identifican centros poblados faltantes en la base de GRPDP existente</t>
+  </si>
+  <si>
+    <t>Se participó en reunión y capacitación sobre los aplicativos de GRPDP y GRVP, con el fin de conocer mas a profundidad el uso y funcionamiento de las herramientas y sus tablas para su posterior mantenimiento, uso y desarrollo.</t>
   </si>
 </sst>
 </file>
@@ -498,10 +510,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-240A]d&quot; de &quot;mmmm&quot; de &quot;yyyy;@"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1405,12 +1417,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1554,6 +1566,523 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1634,18 +2163,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1666,14 +2183,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1687,14 +2196,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1702,502 +2203,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2217,6 +2233,87 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2226,98 +2323,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2862,8 +2878,8 @@
   </sheetPr>
   <dimension ref="A1:O174"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="21.75" x14ac:dyDescent="0.65"/>
@@ -2875,7 +2891,7 @@
     <col min="5" max="7" width="11.42578125" style="2"/>
     <col min="8" max="8" width="20.5703125" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" style="2" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" style="2" customWidth="1"/>
@@ -2883,609 +2899,610 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="124" t="s">
+      <c r="A1" s="152"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="102"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="127" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="103"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="145"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="87" t="s">
+      <c r="A3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="103"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="145"/>
     </row>
     <row r="4" spans="1:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="104"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="148"/>
     </row>
     <row r="5" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="107" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="108"/>
+      <c r="M5" s="150"/>
     </row>
     <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="111" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="109" t="s">
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="253">
+        <v>46054</v>
+      </c>
+      <c r="M6" s="252"/>
+    </row>
+    <row r="7" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="110"/>
+    </row>
+    <row r="8" spans="1:13" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="113"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="115"/>
+    </row>
+    <row r="9" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="112"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="173"/>
+    </row>
+    <row r="10" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="59"/>
+      <c r="C10" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="111" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="112"/>
+    </row>
+    <row r="11" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="60">
+        <v>1</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="177" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="178"/>
+    </row>
+    <row r="12" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="62">
+        <v>2</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="117"/>
+    </row>
+    <row r="13" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="62">
+        <v>3</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="104"/>
+    </row>
+    <row r="14" spans="1:13" ht="102" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A14" s="62">
+        <v>4</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="104"/>
+    </row>
+    <row r="15" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A15" s="62">
+        <v>5</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="179" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="179"/>
+      <c r="E15" s="179"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="76"/>
+    </row>
+    <row r="16" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A16" s="62">
+        <v>6</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="76"/>
+    </row>
+    <row r="17" spans="1:15" ht="74.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="62">
+        <v>7</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="76"/>
+    </row>
+    <row r="18" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A18" s="62">
+        <v>8</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="97"/>
+    </row>
+    <row r="19" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A19" s="62">
+        <v>9</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="M6" s="110"/>
-    </row>
-    <row r="7" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="135" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="151"/>
-    </row>
-    <row r="8" spans="1:13" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="155"/>
-    </row>
-    <row r="9" spans="1:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="132" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="134"/>
-    </row>
-    <row r="10" spans="1:13" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="197" t="s">
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="99"/>
+    </row>
+    <row r="20" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="62">
         <v>10</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="152" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="99"/>
+      <c r="O20" s="41"/>
+    </row>
+    <row r="21" spans="1:15" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="77">
         <v>11</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="152" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="152" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="133"/>
-    </row>
-    <row r="11" spans="1:13" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A11" s="199">
-        <v>1</v>
-      </c>
-      <c r="B11" s="200"/>
-      <c r="C11" s="161" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="195" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="138" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="139"/>
-    </row>
-    <row r="12" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="182">
-        <v>2</v>
-      </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="149" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="141" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="158" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="159"/>
-    </row>
-    <row r="13" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="182">
-        <v>3</v>
-      </c>
-      <c r="B13" s="183"/>
-      <c r="C13" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="141" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="160" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="144"/>
-    </row>
-    <row r="14" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="182">
-        <v>4</v>
-      </c>
-      <c r="B14" s="183"/>
-      <c r="C14" s="149" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="141" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="144"/>
-    </row>
-    <row r="15" spans="1:13" ht="90.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="182">
-        <v>5</v>
-      </c>
-      <c r="B15" s="183"/>
-      <c r="C15" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="156" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="157"/>
-    </row>
-    <row r="16" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="182">
-        <v>6</v>
-      </c>
-      <c r="B16" s="183"/>
-      <c r="C16" s="168" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="156" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="157"/>
-    </row>
-    <row r="17" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="182">
-        <v>7</v>
-      </c>
-      <c r="B17" s="183"/>
-      <c r="C17" s="149" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="141" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="156" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="157"/>
-    </row>
-    <row r="18" spans="1:15" ht="53.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="182">
-        <v>8</v>
-      </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="169" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="170" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="184" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="185"/>
-    </row>
-    <row r="19" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="182">
-        <v>9</v>
-      </c>
-      <c r="B19" s="183"/>
-      <c r="C19" s="173" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="160" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="186"/>
-    </row>
-    <row r="20" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="182">
-        <v>10</v>
-      </c>
-      <c r="B20" s="183"/>
-      <c r="C20" s="170" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="187" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="160" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="186"/>
-      <c r="O20" s="41"/>
-    </row>
-    <row r="21" spans="1:15" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A21" s="212">
-        <v>11</v>
-      </c>
-      <c r="B21" s="213"/>
-      <c r="C21" s="211" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="208" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="209"/>
-      <c r="I21" s="209"/>
-      <c r="J21" s="209"/>
-      <c r="K21" s="210"/>
-      <c r="L21" s="158" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="159"/>
+      <c r="M21" s="117"/>
     </row>
     <row r="22" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A22" s="34"/>
       <c r="B22" s="35"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="206"/>
-      <c r="L22" s="206"/>
-      <c r="M22" s="207"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="70"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A23" s="165" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="163">
+      <c r="A23" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="125">
         <v>32645200</v>
       </c>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="163"/>
-      <c r="L23" s="163"/>
-      <c r="M23" s="164"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A24" s="201" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="202"/>
-      <c r="E24" s="202"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="203">
+      <c r="A24" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="66">
         <v>0</v>
       </c>
-      <c r="H24" s="204"/>
-      <c r="I24" s="204"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="204"/>
-      <c r="L24" s="204"/>
-      <c r="M24" s="205"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="68"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A25" s="176" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="179">
+      <c r="A25" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="93">
         <f>(G23+G24)</f>
         <v>32645200</v>
       </c>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="181"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="95"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A26" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="192">
+      <c r="A26" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="50">
         <f>(G27/G25)</f>
-        <v>7.3033707865168537E-2</v>
-      </c>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="M26" s="194"/>
+        <v>8.4269662921348312E-2</v>
+      </c>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A27" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="94">
-        <v>2384200</v>
-      </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="96"/>
+      <c r="A27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="53">
+        <v>2751000</v>
+      </c>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="55"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A28" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="192">
+      <c r="A28" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="50">
         <f>G29/G25</f>
-        <v>7.3033707865168537E-2</v>
-      </c>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="194"/>
+        <v>0.15730337078651685</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A29" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="94">
-        <v>2384200</v>
-      </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="96"/>
+      <c r="A29" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="53">
+        <f>2384200+G27</f>
+        <v>5135200</v>
+      </c>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A30" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94">
+      <c r="A30" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="53">
         <f>(G25-G29)</f>
-        <v>30261000</v>
-      </c>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="96"/>
+        <v>27510000</v>
+      </c>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="1:15" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A31" s="11"/>
@@ -3519,13 +3536,13 @@
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A33" s="27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -3533,126 +3550,126 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="23"/>
-      <c r="J33" s="23" t="str">
-        <f>+L6</f>
-        <v>CON CORTE AL 31 DE ENERO DEL 2026</v>
+      <c r="J33" s="254">
+        <f>L6</f>
+        <v>46054</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="28"/>
     </row>
     <row r="34" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A34" s="190" t="str">
+      <c r="A34" s="48" t="str">
         <f>IF((B33=A170),A172,A173)</f>
         <v>.</v>
       </c>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="191"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A35" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
-      <c r="M35" s="146"/>
+      <c r="A35" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.65">
-      <c r="A36" s="162" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="73"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="147" t="s">
+      <c r="A36" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="148"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="108"/>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A37" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="55">
+      <c r="A37" s="210" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="131"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="192">
         <v>1000216598</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="88">
-        <v>46053</v>
-      </c>
-      <c r="L37" s="89"/>
-      <c r="M37" s="90"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="133">
+        <v>46081</v>
+      </c>
+      <c r="L37" s="134"/>
+      <c r="M37" s="135"/>
     </row>
     <row r="38" spans="1:13" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A38" s="75"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="77"/>
+      <c r="A38" s="207"/>
+      <c r="B38" s="208"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="208"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="208"/>
+      <c r="M38" s="209"/>
     </row>
     <row r="39" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A39" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="58"/>
+      <c r="A39" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="195"/>
     </row>
     <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A40" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -3661,7 +3678,7 @@
         <v>2023 del 2026</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -3673,21 +3690,21 @@
       <c r="M40" s="21"/>
     </row>
     <row r="41" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A41" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="61"/>
+      <c r="A41" s="196" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="197"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="197"/>
+      <c r="L41" s="197"/>
+      <c r="M41" s="198"/>
     </row>
     <row r="42" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A42" s="16"/>
@@ -3705,191 +3722,191 @@
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A43" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
+      <c r="A43" s="199" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="200"/>
+      <c r="C43" s="201"/>
       <c r="D43" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
+        <v>56</v>
+      </c>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="189" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="189"/>
+      <c r="K43" s="189"/>
       <c r="L43" s="37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M43" s="38"/>
     </row>
     <row r="44" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A44" s="62"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="199"/>
+      <c r="B44" s="200"/>
+      <c r="C44" s="201"/>
       <c r="D44" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
+        <v>48</v>
+      </c>
+      <c r="E44" s="206" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="190"/>
       <c r="L44" s="40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M44" s="42" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
+      <c r="A45" s="199"/>
+      <c r="B45" s="200"/>
+      <c r="C45" s="201"/>
       <c r="D45" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="72">
+        <v>60</v>
+      </c>
+      <c r="E45" s="206">
         <v>12455896</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="190"/>
+      <c r="J45" s="190"/>
+      <c r="K45" s="190"/>
       <c r="L45" s="40" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M45" s="43">
         <v>1020725949</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A46" s="65"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="206" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="190"/>
+      <c r="K46" s="190"/>
+      <c r="L46" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="M46" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="186"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="187"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
+      <c r="K47" s="187"/>
+      <c r="L47" s="187"/>
+      <c r="M47" s="188"/>
+    </row>
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="211" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="211"/>
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211"/>
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="211"/>
+      <c r="M48" s="211"/>
+    </row>
+    <row r="49" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="72" t="s">
+      <c r="B49" s="183"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="40" t="s">
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="203"/>
+      <c r="K49" s="183"/>
+      <c r="L49" s="204" t="s">
         <v>69</v>
       </c>
-      <c r="M46" s="44" t="s">
+      <c r="M49" s="205"/>
+    </row>
+    <row r="50" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A50" s="141" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="48" t="s">
+      <c r="B50" s="142"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="51"/>
-    </row>
-    <row r="48" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="81" t="s">
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-    </row>
-    <row r="49" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="M50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="68" t="s">
+    </row>
+    <row r="51" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A51" s="180">
+        <v>0</v>
+      </c>
+      <c r="B51" s="180"/>
+      <c r="C51" s="180"/>
+      <c r="D51" s="181" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="46"/>
-      <c r="L49" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="M49" s="71"/>
-    </row>
-    <row r="50" spans="1:13" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A50" s="99" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="98"/>
-      <c r="L50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A51" s="82">
-        <v>0</v>
-      </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="181"/>
+      <c r="G51" s="181"/>
+      <c r="H51" s="181"/>
+      <c r="I51" s="181"/>
+      <c r="J51" s="181"/>
+      <c r="K51" s="181"/>
       <c r="L51" s="7">
         <v>43690</v>
       </c>
@@ -3898,21 +3915,21 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A52" s="82">
+      <c r="A52" s="180">
         <v>1</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
+      <c r="B52" s="180"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="181" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="H52" s="181"/>
+      <c r="I52" s="181"/>
+      <c r="J52" s="181"/>
+      <c r="K52" s="181"/>
       <c r="L52" s="7">
         <v>44417</v>
       </c>
@@ -3921,21 +3938,21 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A53" s="82">
+      <c r="A53" s="180">
         <v>2</v>
       </c>
-      <c r="B53" s="82"/>
-      <c r="C53" s="82"/>
-      <c r="D53" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="180"/>
+      <c r="D53" s="181" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="181"/>
+      <c r="F53" s="181"/>
+      <c r="G53" s="181"/>
+      <c r="H53" s="181"/>
+      <c r="I53" s="181"/>
+      <c r="J53" s="181"/>
+      <c r="K53" s="181"/>
       <c r="L53" s="7">
         <v>45861</v>
       </c>
@@ -3944,21 +3961,21 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A54" s="82">
+      <c r="A54" s="180">
         <v>3</v>
       </c>
-      <c r="B54" s="82"/>
-      <c r="C54" s="82"/>
-      <c r="D54" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="180"/>
+      <c r="D54" s="181" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="181"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="181"/>
+      <c r="H54" s="181"/>
+      <c r="I54" s="181"/>
+      <c r="J54" s="181"/>
+      <c r="K54" s="181"/>
       <c r="L54" s="7">
         <v>45981</v>
       </c>
@@ -3967,21 +3984,21 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A55" s="82">
+      <c r="A55" s="180">
         <v>4</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
+      <c r="B55" s="180"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="181" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="181"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="181"/>
+      <c r="H55" s="181"/>
+      <c r="I55" s="181"/>
+      <c r="J55" s="181"/>
+      <c r="K55" s="181"/>
       <c r="L55" s="7">
         <v>46038</v>
       </c>
@@ -3994,7 +4011,7 @@
     </row>
     <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.65">
       <c r="A170" s="29" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -4012,7 +4029,7 @@
     </row>
     <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.65">
       <c r="A171" s="29" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
@@ -4030,7 +4047,7 @@
     </row>
     <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.65">
       <c r="A172" s="29" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -4048,7 +4065,7 @@
     </row>
     <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.65">
       <c r="A173" s="31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -4066,7 +4083,7 @@
     </row>
     <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.65">
       <c r="A174" s="32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -4084,6 +4101,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="I43:K46"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A39:M39"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A43:C46"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A48:M48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:K54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:K55"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G29:M29"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="G26:M26"/>
@@ -4108,97 +4216,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G29:M29"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:K54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:K55"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="I43:K46"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A43:C46"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="E46:H46"/>
-    <mergeCell ref="E44:H44"/>
-    <mergeCell ref="E45:H45"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A48:M48"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A170:A171 B33" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4213,7 +4230,7 @@
     <hyperlink ref="L18:M18" r:id="rId5" display="Link a OneDrive del empleado en el cual se pueden encontrar los documentos realizados" xr:uid="{E8C6F20F-767E-45CE-B7FC-D8153B613D9C}"/>
     <hyperlink ref="L19:M19" r:id="rId6" display="Link a Microsoft Teams" xr:uid="{24A14831-61CF-42A4-89E5-0DDF60CE3EB7}"/>
     <hyperlink ref="L12" r:id="rId7" display="https://apps.powerapps.com/play/e/default-58ec5e61-0ed7-4021-a4f8-c2e2b3b9f5ff/a/9f47d67b-a14a-449a-9e20-5fba6e6e51c3?tenantId=58ec5e61-0ed7-4021-a4f8-c2e2b3b9f5ff&amp;sourcetime=1757003904953" xr:uid="{027D8AEE-DFF3-4E59-815B-EDD9FFD11112}"/>
-    <hyperlink ref="L14" r:id="rId8" display="https://github.com/EcosistemaUNP/bk-sp-asp.git" xr:uid="{7F52FBD6-CDEB-407A-9004-724AA1BA5E68}"/>
+    <hyperlink ref="L14" r:id="rId8" display="https://github.com/EcosistemaUNP/bk-sp-asp/commits/JCalixto-dev " xr:uid="{7F52FBD6-CDEB-407A-9004-724AA1BA5E68}"/>
     <hyperlink ref="L13" r:id="rId9" xr:uid="{D1690AFF-6CB3-462D-8678-24102A3B8BBD}"/>
     <hyperlink ref="L15" r:id="rId10" xr:uid="{48B55E5B-BA6C-4990-A89F-53219BF153D1}"/>
     <hyperlink ref="L16" r:id="rId11" xr:uid="{6AF4E952-607D-4877-9FAE-76BF9E31AEBC}"/>
@@ -4221,7 +4238,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" r:id="rId13"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="18" max="12" man="1"/>
   </rowBreaks>
@@ -4255,494 +4272,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="236"/>
-      <c r="B1" s="236"/>
-      <c r="C1" s="238" t="s">
+      <c r="A1" s="214"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="222" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="214"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="224" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="225"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="225"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+    </row>
+    <row r="3" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="215"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="226" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+    </row>
+    <row r="4" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="228"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="230"/>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="232" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="235" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="237"/>
+    </row>
+    <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="238" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="239"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="241" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="243"/>
+    </row>
+    <row r="7" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="216" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="236"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="241"/>
-      <c r="K2" s="241"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-    </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="237"/>
-      <c r="B3" s="237"/>
-      <c r="C3" s="242" t="s">
+      <c r="B7" s="217"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="217"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="237"/>
-      <c r="M3" s="237"/>
-    </row>
-    <row r="4" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="244"/>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="245"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="245"/>
-      <c r="M4" s="246"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="248" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="249"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="251" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="252"/>
-      <c r="I5" s="252"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="252"/>
-      <c r="L5" s="252"/>
-      <c r="M5" s="253"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="228" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="230"/>
-      <c r="G6" s="231" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="232"/>
-      <c r="I6" s="232"/>
-      <c r="J6" s="232"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="232"/>
-      <c r="M6" s="233"/>
-    </row>
-    <row r="7" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="214" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="224" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="225"/>
-      <c r="L7" s="225"/>
-      <c r="M7" s="226"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="246"/>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="214" t="str">
+      <c r="A8" s="216" t="str">
         <f>+Formato!L5</f>
         <v>PERIODO INFORMADO</v>
       </c>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="217" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="219"/>
+      <c r="B8" s="217"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="219" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="220"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="221"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="214" t="str">
+      <c r="A9" s="216" t="str">
         <f>+Formato!C10</f>
         <v xml:space="preserve">OBLIGACIÓN CONTRACTUAL </v>
       </c>
-      <c r="B9" s="215"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="217" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
-      <c r="L9" s="218"/>
-      <c r="M9" s="219"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="219" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="221"/>
     </row>
     <row r="10" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="214" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="217" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="218"/>
-      <c r="L10" s="218"/>
-      <c r="M10" s="219"/>
+      <c r="A10" s="216" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="217"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="219" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="220"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="221"/>
     </row>
     <row r="11" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="214" t="str">
+      <c r="A11" s="216" t="str">
         <f>+Formato!L10</f>
         <v>EVIDENCIA- REGISTRO Y/O SOPORTE DE LA EJECUCIÓN DE LA ACTIVIDAD REALIZADA</v>
       </c>
-      <c r="B11" s="215"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="217" t="s">
+      <c r="B11" s="217"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="217"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="219" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="220"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="220"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="221"/>
+    </row>
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="216" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="217"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="219" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="220"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="221"/>
+    </row>
+    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="216" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="219" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="221"/>
+    </row>
+    <row r="14" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="216" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="217"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="217"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="219" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="221"/>
+    </row>
+    <row r="15" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="216" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="217"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="219" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
-      <c r="M11" s="219"/>
-    </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="214" t="s">
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="221"/>
+    </row>
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="216" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="217"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="244" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="215"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="217" t="s">
+      <c r="H16" s="245"/>
+      <c r="I16" s="245"/>
+      <c r="J16" s="245"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="246"/>
+    </row>
+    <row r="17" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="216" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="217"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="217"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="219" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="219"/>
-    </row>
-    <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="214" t="s">
+      <c r="H17" s="220"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="220"/>
+      <c r="K17" s="220"/>
+      <c r="L17" s="220"/>
+      <c r="M17" s="221"/>
+    </row>
+    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="216" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="217"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="219" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="215"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="217" t="s">
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="221"/>
+    </row>
+    <row r="19" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="216" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="217"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="217"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="219" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="219"/>
-    </row>
-    <row r="14" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="214" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="217" t="s">
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="220"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="221"/>
+    </row>
+    <row r="20" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="216" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="218"/>
-      <c r="I14" s="218"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="218"/>
-      <c r="L14" s="218"/>
-      <c r="M14" s="219"/>
-    </row>
-    <row r="15" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="214" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="217" t="s">
+      <c r="B20" s="217"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="217"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="249" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="218"/>
-      <c r="L15" s="218"/>
-      <c r="M15" s="219"/>
-    </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="214" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="224" t="s">
+      <c r="H20" s="250"/>
+      <c r="I20" s="250"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="250"/>
+      <c r="L20" s="250"/>
+      <c r="M20" s="251"/>
+    </row>
+    <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="216" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="225"/>
-      <c r="I16" s="225"/>
-      <c r="J16" s="225"/>
-      <c r="K16" s="225"/>
-      <c r="L16" s="225"/>
-      <c r="M16" s="226"/>
-    </row>
-    <row r="17" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="214" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="215"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="217" t="s">
+      <c r="B21" s="217"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="219" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="219"/>
-    </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="214" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="215"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="217" t="s">
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="221"/>
+    </row>
+    <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="216" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="219"/>
-    </row>
-    <row r="19" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="214" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="217" t="s">
+      <c r="B22" s="217"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="217"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="219"/>
-    </row>
-    <row r="20" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="214" t="s">
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="221"/>
+    </row>
+    <row r="23" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="216" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="217"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="217"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="219" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="215"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="220" t="s">
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="220"/>
+      <c r="K23" s="220"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="221"/>
+    </row>
+    <row r="24" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="216" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="221"/>
-      <c r="L20" s="221"/>
-      <c r="M20" s="222"/>
-    </row>
-    <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="214" t="s">
+      <c r="B24" s="217"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="217"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="231" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="217" t="s">
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="221"/>
+    </row>
+    <row r="25" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="248" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="248"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="248"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="218"/>
-      <c r="I21" s="218"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="219"/>
-    </row>
-    <row r="22" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="214" t="s">
+      <c r="H25" s="247"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="247"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="247"/>
+      <c r="M25" s="247"/>
+    </row>
+    <row r="26" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="215"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="217" t="s">
+      <c r="B26" s="212"/>
+      <c r="C26" s="212"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="213" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="218"/>
-      <c r="I22" s="218"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="218"/>
-      <c r="L22" s="218"/>
-      <c r="M22" s="219"/>
-    </row>
-    <row r="23" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="214" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="215"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="217" t="s">
-        <v>118</v>
-      </c>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="218"/>
-      <c r="M23" s="219"/>
-    </row>
-    <row r="24" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="214" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="215"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="247" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="219"/>
-    </row>
-    <row r="25" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="227" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="223" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="223"/>
-      <c r="M25" s="223"/>
-    </row>
-    <row r="26" spans="1:13" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="234" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="234"/>
-      <c r="C26" s="234"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="234"/>
-      <c r="G26" s="235" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="235"/>
-      <c r="I26" s="235"/>
-      <c r="J26" s="235"/>
-      <c r="K26" s="235"/>
-      <c r="L26" s="235"/>
-      <c r="M26" s="235"/>
+      <c r="H26" s="213"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="213"/>
+      <c r="L26" s="213"/>
+      <c r="M26" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:M11"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="G26:M26"/>
     <mergeCell ref="L1:M3"/>
@@ -4759,40 +4810,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:M5"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
@@ -4801,6 +4818,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D8962D83CB3E0248A7ACF655DAD9D3AD" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="83fb05ca33fd411246b6c8207d5fb07f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="31bbf60d-c53f-4949-90ec-7b0c5265cdd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f0b01ce740d8fc6d71522fea3c8241af" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4957,15 +4983,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4983,6 +5000,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D33ACA08-BFAA-4E8D-B137-D10B78EB96D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C70714B0-D84B-495B-A878-BE73B355A2A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4997,14 +5022,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D33ACA08-BFAA-4E8D-B137-D10B78EB96D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
